--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-Adcy1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-Adcy1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H2">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I2">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J2">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1212106666666667</v>
+        <v>0.02287433333333333</v>
       </c>
       <c r="N2">
-        <v>0.363632</v>
+        <v>0.068623</v>
       </c>
       <c r="O2">
-        <v>0.7745535952014281</v>
+        <v>0.08516968032358596</v>
       </c>
       <c r="P2">
-        <v>0.774553595201428</v>
+        <v>0.08516968032358598</v>
       </c>
       <c r="Q2">
-        <v>12.95482510588978</v>
+        <v>4.837040075688889</v>
       </c>
       <c r="R2">
-        <v>116.593425953008</v>
+        <v>43.5333606812</v>
       </c>
       <c r="S2">
-        <v>0.1168606422265593</v>
+        <v>0.02062011000334505</v>
       </c>
       <c r="T2">
-        <v>0.1168606422265593</v>
+        <v>0.02062011000334505</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,51 +605,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H3">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I3">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J3">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.03528033333333333</v>
+        <v>0.1212106666666667</v>
       </c>
       <c r="N3">
-        <v>0.105841</v>
+        <v>0.363632</v>
       </c>
       <c r="O3">
-        <v>0.225446404798572</v>
+        <v>0.4513125511188116</v>
       </c>
       <c r="P3">
-        <v>0.225446404798572</v>
+        <v>0.4513125511188117</v>
       </c>
       <c r="Q3">
-        <v>3.770712269636555</v>
+        <v>25.63138534897778</v>
       </c>
       <c r="R3">
-        <v>33.936410426729</v>
+        <v>230.6824681408</v>
       </c>
       <c r="S3">
-        <v>0.03401418806348523</v>
+        <v>0.1092655791897231</v>
       </c>
       <c r="T3">
-        <v>0.03401418806348524</v>
+        <v>0.1092655791897231</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>77.232923</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H4">
-        <v>231.698769</v>
+        <v>634.3844</v>
       </c>
       <c r="I4">
-        <v>0.1090256166999485</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J4">
-        <v>0.1090256166999485</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1212106666666667</v>
+        <v>0.1244886666666667</v>
       </c>
       <c r="N4">
-        <v>0.363632</v>
+        <v>0.373466</v>
       </c>
       <c r="O4">
-        <v>0.7745535952014281</v>
+        <v>0.4635177685576024</v>
       </c>
       <c r="P4">
-        <v>0.774553595201428</v>
+        <v>0.4635177685576025</v>
       </c>
       <c r="Q4">
-        <v>9.361454085445335</v>
+        <v>26.32455603671111</v>
       </c>
       <c r="R4">
-        <v>84.25308676900801</v>
+        <v>236.9210043304</v>
       </c>
       <c r="S4">
-        <v>0.08444618338399798</v>
+        <v>0.1122205383400502</v>
       </c>
       <c r="T4">
-        <v>0.08444618338399798</v>
+        <v>0.1122205383400502</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,45 +735,45 @@
         <v>231.698769</v>
       </c>
       <c r="I5">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J5">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.03528033333333333</v>
+        <v>0.02287433333333333</v>
       </c>
       <c r="N5">
-        <v>0.105841</v>
+        <v>0.068623</v>
       </c>
       <c r="O5">
-        <v>0.225446404798572</v>
+        <v>0.08516968032358596</v>
       </c>
       <c r="P5">
-        <v>0.225446404798572</v>
+        <v>0.08516968032358598</v>
       </c>
       <c r="Q5">
-        <v>2.724803267747666</v>
+        <v>1.766651625009667</v>
       </c>
       <c r="R5">
-        <v>24.523229409729</v>
+        <v>15.899864625087</v>
       </c>
       <c r="S5">
-        <v>0.02457943331595054</v>
+        <v>0.007531165811170064</v>
       </c>
       <c r="T5">
-        <v>0.02457943331595054</v>
+        <v>0.007531165811170065</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>136.676337</v>
+        <v>77.232923</v>
       </c>
       <c r="H6">
-        <v>410.029011</v>
+        <v>231.698769</v>
       </c>
       <c r="I6">
-        <v>0.1929387280825172</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J6">
-        <v>0.1929387280825173</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -815,27 +815,27 @@
         <v>0.363632</v>
       </c>
       <c r="O6">
-        <v>0.7745535952014281</v>
+        <v>0.4513125511188116</v>
       </c>
       <c r="P6">
-        <v>0.774553595201428</v>
+        <v>0.4513125511188117</v>
       </c>
       <c r="Q6">
-        <v>16.566629925328</v>
+        <v>9.361454085445335</v>
       </c>
       <c r="R6">
-        <v>149.099669327952</v>
+        <v>84.25308676900801</v>
       </c>
       <c r="S6">
-        <v>0.1494413854899045</v>
+        <v>0.03990750748651899</v>
       </c>
       <c r="T6">
-        <v>0.1494413854899045</v>
+        <v>0.03990750748651899</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -853,51 +853,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>136.676337</v>
+        <v>77.232923</v>
       </c>
       <c r="H7">
-        <v>410.029011</v>
+        <v>231.698769</v>
       </c>
       <c r="I7">
-        <v>0.1929387280825172</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J7">
-        <v>0.1929387280825173</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.03528033333333333</v>
+        <v>0.1244886666666667</v>
       </c>
       <c r="N7">
-        <v>0.105841</v>
+        <v>0.373466</v>
       </c>
       <c r="O7">
-        <v>0.225446404798572</v>
+        <v>0.4635177685576024</v>
       </c>
       <c r="P7">
-        <v>0.225446404798572</v>
+        <v>0.4635177685576025</v>
       </c>
       <c r="Q7">
-        <v>4.821986728139001</v>
+        <v>9.614623607039332</v>
       </c>
       <c r="R7">
-        <v>43.397880553251</v>
+        <v>86.53161246335399</v>
       </c>
       <c r="S7">
-        <v>0.04349734259261279</v>
+        <v>0.04098675911625022</v>
       </c>
       <c r="T7">
-        <v>0.0434973425926128</v>
+        <v>0.04098675911625022</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,51 +915,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>45.55066433333334</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H8">
-        <v>136.651993</v>
+        <v>522.932113</v>
       </c>
       <c r="I8">
-        <v>0.06430145431675577</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J8">
-        <v>0.06430145431675578</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1212106666666667</v>
+        <v>0.02287433333333333</v>
       </c>
       <c r="N8">
-        <v>0.363632</v>
+        <v>0.068623</v>
       </c>
       <c r="O8">
-        <v>0.7745535952014281</v>
+        <v>0.08516968032358596</v>
       </c>
       <c r="P8">
-        <v>0.774553595201428</v>
+        <v>0.08516968032358598</v>
       </c>
       <c r="Q8">
-        <v>5.52122639095289</v>
+        <v>3.987241154488777</v>
       </c>
       <c r="R8">
-        <v>49.691037518576</v>
+        <v>35.885170390399</v>
       </c>
       <c r="S8">
-        <v>0.04980492261772357</v>
+        <v>0.01699745090569955</v>
       </c>
       <c r="T8">
-        <v>0.04980492261772357</v>
+        <v>0.01699745090569955</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,51 +977,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>45.55066433333334</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H9">
-        <v>136.651993</v>
+        <v>522.932113</v>
       </c>
       <c r="I9">
-        <v>0.06430145431675577</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J9">
-        <v>0.06430145431675578</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.03528033333333333</v>
+        <v>0.1212106666666667</v>
       </c>
       <c r="N9">
-        <v>0.105841</v>
+        <v>0.363632</v>
       </c>
       <c r="O9">
-        <v>0.225446404798572</v>
+        <v>0.4513125511188116</v>
       </c>
       <c r="P9">
-        <v>0.225446404798572</v>
+        <v>0.4513125511188117</v>
       </c>
       <c r="Q9">
-        <v>1.607042621234778</v>
+        <v>21.12831667937956</v>
       </c>
       <c r="R9">
-        <v>14.463383591113</v>
+        <v>190.154850114416</v>
       </c>
       <c r="S9">
-        <v>0.01449653169903221</v>
+        <v>0.09006917604507728</v>
       </c>
       <c r="T9">
-        <v>0.01449653169903221</v>
+        <v>0.09006917604507728</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>198.5982106666667</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H10">
-        <v>595.794632</v>
+        <v>522.932113</v>
       </c>
       <c r="I10">
-        <v>0.2803505493821544</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J10">
-        <v>0.2803505493821544</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1212106666666667</v>
+        <v>0.1244886666666667</v>
       </c>
       <c r="N10">
-        <v>0.363632</v>
+        <v>0.373466</v>
       </c>
       <c r="O10">
-        <v>0.7745535952014281</v>
+        <v>0.4635177685576024</v>
       </c>
       <c r="P10">
-        <v>0.774553595201428</v>
+        <v>0.4635177685576025</v>
       </c>
       <c r="Q10">
-        <v>24.07222151371378</v>
+        <v>21.69970716818422</v>
       </c>
       <c r="R10">
-        <v>216.649993623424</v>
+        <v>195.297364513658</v>
       </c>
       <c r="S10">
-        <v>0.2171465259406432</v>
+        <v>0.09250499103723221</v>
       </c>
       <c r="T10">
-        <v>0.2171465259406432</v>
+        <v>0.09250499103723221</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>198.5982106666667</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H11">
-        <v>595.794632</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I11">
-        <v>0.2803505493821544</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J11">
-        <v>0.2803505493821544</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.03528033333333333</v>
+        <v>0.02287433333333333</v>
       </c>
       <c r="N11">
-        <v>0.105841</v>
+        <v>0.068623</v>
       </c>
       <c r="O11">
-        <v>0.225446404798572</v>
+        <v>0.08516968032358596</v>
       </c>
       <c r="P11">
-        <v>0.225446404798572</v>
+        <v>0.08516968032358598</v>
       </c>
       <c r="Q11">
-        <v>7.006611071723555</v>
+        <v>0.6527133449594443</v>
       </c>
       <c r="R11">
-        <v>63.05949964551199</v>
+        <v>5.874420104635</v>
       </c>
       <c r="S11">
-        <v>0.06320402344151123</v>
+        <v>0.002782491102639504</v>
       </c>
       <c r="T11">
-        <v>0.06320402344151123</v>
+        <v>0.002782491102639505</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>143.4557186666667</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H12">
-        <v>430.367156</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I12">
-        <v>0.2025088212285795</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J12">
-        <v>0.2025088212285796</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1187,27 +1187,27 @@
         <v>0.363632</v>
       </c>
       <c r="O12">
-        <v>0.7745535952014281</v>
+        <v>0.4513125511188116</v>
       </c>
       <c r="P12">
-        <v>0.774553595201428</v>
+        <v>0.4513125511188117</v>
       </c>
       <c r="Q12">
-        <v>17.38836329673244</v>
+        <v>3.458715868648889</v>
       </c>
       <c r="R12">
-        <v>156.495269670592</v>
+        <v>31.12844281784</v>
       </c>
       <c r="S12">
-        <v>0.1568539355425995</v>
+        <v>0.01474436857372904</v>
       </c>
       <c r="T12">
-        <v>0.1568539355425996</v>
+        <v>0.01474436857372905</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1225,46 +1225,418 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>143.4557186666667</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H13">
-        <v>430.367156</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I13">
-        <v>0.2025088212285795</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J13">
-        <v>0.2025088212285796</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.03528033333333333</v>
+        <v>0.1244886666666667</v>
       </c>
       <c r="N13">
-        <v>0.105841</v>
+        <v>0.373466</v>
       </c>
       <c r="O13">
-        <v>0.225446404798572</v>
+        <v>0.4635177685576024</v>
       </c>
       <c r="P13">
-        <v>0.225446404798572</v>
+        <v>0.4635177685576025</v>
       </c>
       <c r="Q13">
-        <v>5.061165573132888</v>
+        <v>3.552252773685554</v>
       </c>
       <c r="R13">
-        <v>45.55049015819599</v>
+        <v>31.97027496317</v>
       </c>
       <c r="S13">
-        <v>0.04565488568597999</v>
+        <v>0.01514311269018208</v>
       </c>
       <c r="T13">
-        <v>0.04565488568597999</v>
+        <v>0.01514311269018208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>230.32901</v>
+      </c>
+      <c r="H14">
+        <v>690.98703</v>
+      </c>
+      <c r="I14">
+        <v>0.263708034289011</v>
+      </c>
+      <c r="J14">
+        <v>0.263708034289011</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.02287433333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.068623</v>
+      </c>
+      <c r="O14">
+        <v>0.08516968032358596</v>
+      </c>
+      <c r="P14">
+        <v>0.08516968032358598</v>
+      </c>
+      <c r="Q14">
+        <v>5.268622551076667</v>
+      </c>
+      <c r="R14">
+        <v>47.41760295969</v>
+      </c>
+      <c r="S14">
+        <v>0.02245992897915631</v>
+      </c>
+      <c r="T14">
+        <v>0.02245992897915631</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>230.32901</v>
+      </c>
+      <c r="H15">
+        <v>690.98703</v>
+      </c>
+      <c r="I15">
+        <v>0.263708034289011</v>
+      </c>
+      <c r="J15">
+        <v>0.263708034289011</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.1212106666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.363632</v>
+      </c>
+      <c r="O15">
+        <v>0.4513125511188116</v>
+      </c>
+      <c r="P15">
+        <v>0.4513125511188117</v>
+      </c>
+      <c r="Q15">
+        <v>27.91833285477334</v>
+      </c>
+      <c r="R15">
+        <v>251.26499569296</v>
+      </c>
+      <c r="S15">
+        <v>0.1190147457055006</v>
+      </c>
+      <c r="T15">
+        <v>0.1190147457055006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>230.32901</v>
+      </c>
+      <c r="H16">
+        <v>690.98703</v>
+      </c>
+      <c r="I16">
+        <v>0.263708034289011</v>
+      </c>
+      <c r="J16">
+        <v>0.263708034289011</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.1244886666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.373466</v>
+      </c>
+      <c r="O16">
+        <v>0.4635177685576024</v>
+      </c>
+      <c r="P16">
+        <v>0.4635177685576025</v>
+      </c>
+      <c r="Q16">
+        <v>28.67335134955333</v>
+      </c>
+      <c r="R16">
+        <v>258.06016214598</v>
+      </c>
+      <c r="S16">
+        <v>0.1222333596043541</v>
+      </c>
+      <c r="T16">
+        <v>0.1222333596043541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>151.5554656666667</v>
+      </c>
+      <c r="H17">
+        <v>454.666397</v>
+      </c>
+      <c r="I17">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="J17">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.02287433333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.068623</v>
+      </c>
+      <c r="O17">
+        <v>0.08516968032358596</v>
+      </c>
+      <c r="P17">
+        <v>0.08516968032358598</v>
+      </c>
+      <c r="Q17">
+        <v>3.466730240147889</v>
+      </c>
+      <c r="R17">
+        <v>31.200572161331</v>
+      </c>
+      <c r="S17">
+        <v>0.01477853352157549</v>
+      </c>
+      <c r="T17">
+        <v>0.01477853352157549</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>151.5554656666667</v>
+      </c>
+      <c r="H18">
+        <v>454.666397</v>
+      </c>
+      <c r="I18">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="J18">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.1212106666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.363632</v>
+      </c>
+      <c r="O18">
+        <v>0.4513125511188116</v>
+      </c>
+      <c r="P18">
+        <v>0.4513125511188117</v>
+      </c>
+      <c r="Q18">
+        <v>18.37013903043378</v>
+      </c>
+      <c r="R18">
+        <v>165.331251273904</v>
+      </c>
+      <c r="S18">
+        <v>0.07831117411826265</v>
+      </c>
+      <c r="T18">
+        <v>0.07831117411826265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>151.5554656666667</v>
+      </c>
+      <c r="H19">
+        <v>454.666397</v>
+      </c>
+      <c r="I19">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="J19">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.1244886666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.373466</v>
+      </c>
+      <c r="O19">
+        <v>0.4635177685576024</v>
+      </c>
+      <c r="P19">
+        <v>0.4635177685576025</v>
+      </c>
+      <c r="Q19">
+        <v>18.86693784688911</v>
+      </c>
+      <c r="R19">
+        <v>169.802440622002</v>
+      </c>
+      <c r="S19">
+        <v>0.08042900776953368</v>
+      </c>
+      <c r="T19">
+        <v>0.08042900776953368</v>
       </c>
     </row>
   </sheetData>
